--- a/Leetcode learnings.xlsx
+++ b/Leetcode learnings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amey/Desktop/repos/Leetcode-Learnings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7E6A2E-26EC-6648-8B76-15DA30849357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336B2B0D-A3C0-CD4D-8A2E-8E1E0043D63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" activeTab="2" xr2:uid="{C2ABFAF5-9768-A849-993B-3087B2A527A2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" activeTab="2" xr2:uid="{C2ABFAF5-9768-A849-993B-3087B2A527A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind 75" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="250">
   <si>
     <t> Two Sum</t>
   </si>
@@ -873,6 +873,20 @@
   <si>
     <t>1. Not every time you have to do BFS DFS. Sometimes, solutions can be simple without doing the traversal over and over
 2. In this case, it was utilizing the graph for getting only the available candidates, after that it was sorting and assigning</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>DP + Binary Search</t>
+  </si>
+  <si>
+    <t>1. Can be divided into subproblem
+2. Linear search can be avoided</t>
+  </si>
+  <si>
+    <t>1. Iterate from the start, and store the intermediate results
+2. Use this results for the next iteration</t>
   </si>
 </sst>
 </file>
@@ -2340,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602BD977-30B7-A347-8E5A-13E9B558F709}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2525,7 +2539,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>239</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2550,6 +2564,20 @@
       </c>
       <c r="D15" s="5" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2568,6 +2596,7 @@
     <hyperlink ref="A13" r:id="rId7" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{B84D98DA-8C3A-B848-91AC-1B2BF67158EA}"/>
     <hyperlink ref="A14" r:id="rId8" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{D903E004-602B-E546-A72D-8F3D8F8CCEA5}"/>
     <hyperlink ref="A15" r:id="rId9" display="https://leetcode.com/problems/smallest-string-with-swaps/" xr:uid="{B523E1BA-017D-0647-9B38-2D7E434DC974}"/>
+    <hyperlink ref="A16" r:id="rId10" display="https://leetcode.com/problems/word-break/" xr:uid="{89A07081-07F9-DB47-9693-34CE71AD1BDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leetcode learnings.xlsx
+++ b/Leetcode learnings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amey/Desktop/repos/Leetcode-Learnings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336B2B0D-A3C0-CD4D-8A2E-8E1E0043D63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA517EB-C8F5-B94C-BBB4-BE7A9074B0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" activeTab="2" xr2:uid="{C2ABFAF5-9768-A849-993B-3087B2A527A2}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Interesting patterns" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="254">
   <si>
     <t> Two Sum</t>
   </si>
@@ -887,6 +886,19 @@
   <si>
     <t>1. Iterate from the start, and store the intermediate results
 2. Use this results for the next iteration</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>Prefix traversal</t>
+  </si>
+  <si>
+    <t>1. Can compare with same tree
+2. Some traversal might be the same</t>
+  </si>
+  <si>
+    <t>1. Updating or tweaking the traversal to get the desired result, better than comparing the tree over and over again</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1012,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,6 +1068,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2354,10 +2369,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602BD977-30B7-A347-8E5A-13E9B558F709}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2578,6 +2593,20 @@
       </c>
       <c r="D16" s="5" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2597,6 +2626,7 @@
     <hyperlink ref="A14" r:id="rId8" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{D903E004-602B-E546-A72D-8F3D8F8CCEA5}"/>
     <hyperlink ref="A15" r:id="rId9" display="https://leetcode.com/problems/smallest-string-with-swaps/" xr:uid="{B523E1BA-017D-0647-9B38-2D7E434DC974}"/>
     <hyperlink ref="A16" r:id="rId10" display="https://leetcode.com/problems/word-break/" xr:uid="{89A07081-07F9-DB47-9693-34CE71AD1BDB}"/>
+    <hyperlink ref="A17" r:id="rId11" display="https://leetcode.com/problems/subtree-of-another-tree/" xr:uid="{90E8EAB5-A462-4847-BA4F-0DCFDBA77D52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
